--- a/Exporturi excel/CL/export_consum_silviutanase-2020.xlsx
+++ b/Exporturi excel/CL/export_consum_silviutanase-2020.xlsx
@@ -1,132 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\generare_facturi\Exporturi excel\CL\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16DBCA86-8B9A-40D1-848F-784B96342F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>bill_year</t>
-  </si>
-  <si>
-    <t>bill_month</t>
-  </si>
-  <si>
-    <t>bill_serial</t>
-  </si>
-  <si>
-    <t>bill_number</t>
-  </si>
-  <si>
-    <t>index_value</t>
-  </si>
-  <si>
-    <t>energ_cons_cant</t>
-  </si>
-  <si>
-    <t>energ_cons_pret</t>
-  </si>
-  <si>
-    <t>energ_cons_val</t>
-  </si>
-  <si>
-    <t>energ_cons_tva</t>
-  </si>
-  <si>
-    <t>acciza_cant</t>
-  </si>
-  <si>
-    <t>acciza_pret</t>
-  </si>
-  <si>
-    <t>acciza_val</t>
-  </si>
-  <si>
-    <t>acciza_tva</t>
-  </si>
-  <si>
-    <t>certif_cant</t>
-  </si>
-  <si>
-    <t>certif_pret</t>
-  </si>
-  <si>
-    <t>certif_val</t>
-  </si>
-  <si>
-    <t>certif_tva</t>
-  </si>
-  <si>
-    <t>oug_cant</t>
-  </si>
-  <si>
-    <t>oug_pret</t>
-  </si>
-  <si>
-    <t>oug_val</t>
-  </si>
-  <si>
-    <t>oug_tva</t>
-  </si>
-  <si>
-    <t>total_fara_tva</t>
-  </si>
-  <si>
-    <t>total_tva</t>
-  </si>
-  <si>
-    <t>total_bill_value</t>
-  </si>
-  <si>
-    <t>silviutanase</t>
-  </si>
-  <si>
-    <t>CL</t>
-  </si>
-  <si>
-    <t>010220000001</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -141,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -465,190 +420,1140 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>username</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>bill_year</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>bill_month</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>bill_serial</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>bill_number</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>index_value</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>energ_cons_cant</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>energ_cons_pret</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>energ_cons_val</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>energ_cons_tva</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>acciza_cant</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>acciza_pret</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>acciza_val</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>acciza_tva</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>certif_cant</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>certif_pret</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>certif_val</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>certif_tva</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>oug_cant</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>oug_pret</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>oug_val</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>oug_tva</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>total_fara_tva</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>total_tva</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>total_bill_value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>silviutanase</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>010220000001</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>105</v>
+      </c>
+      <c r="G2" t="n">
+        <v>105</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.40182</v>
+      </c>
+      <c r="I2" t="n">
+        <v>147.1911</v>
+      </c>
+      <c r="J2" t="n">
+        <v>27.966309</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="L2" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.63525</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.1206975</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="P2" t="n">
+        <v>71.68059</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>7.526461949999999</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.4300277705</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-105</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.90812</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-95.35260000000001</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-18.116994</v>
+      </c>
+      <c r="W2" t="n">
+        <v>60.00021195000001</v>
+      </c>
+      <c r="X2" t="n">
+        <v>11.4000402705</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>71.40025222050001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>silviutanase</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C3" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>010320000001</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>223</v>
+      </c>
+      <c r="G3" t="n">
+        <v>118</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.40182</v>
+      </c>
+      <c r="I3" t="n">
+        <v>165.41476</v>
+      </c>
+      <c r="J3" t="n">
+        <v>31.4288044</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="L3" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.7139</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.135641</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="P3" t="n">
+        <v>71.68059</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>8.45830962</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.6070788278</v>
+      </c>
+      <c r="S3" t="n">
+        <v>-118</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.90812</v>
+      </c>
+      <c r="U3" t="n">
+        <v>-107.15816</v>
+      </c>
+      <c r="V3" t="n">
+        <v>-20.3600504</v>
+      </c>
+      <c r="W3" t="n">
+        <v>67.42880961999998</v>
+      </c>
+      <c r="X3" t="n">
+        <v>12.8114738278</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>80.24028344779998</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>silviutanase</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C4" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>010420000001</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>345</v>
+      </c>
+      <c r="G4" t="n">
+        <v>122</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.40182</v>
+      </c>
+      <c r="I4" t="n">
+        <v>171.02204</v>
+      </c>
+      <c r="J4" t="n">
+        <v>32.4941876</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.122</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.7381</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.140239</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.122</v>
+      </c>
+      <c r="P4" t="n">
+        <v>71.68059</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>8.745031979999998</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.6615560762</v>
+      </c>
+      <c r="S4" t="n">
+        <v>-122</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.90812</v>
+      </c>
+      <c r="U4" t="n">
+        <v>-110.79064</v>
+      </c>
+      <c r="V4" t="n">
+        <v>-21.0502216</v>
+      </c>
+      <c r="W4" t="n">
+        <v>69.71453197999999</v>
+      </c>
+      <c r="X4" t="n">
+        <v>13.2457610762</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>82.96029305619999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>silviutanase</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C5" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>010520000001</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>431</v>
+      </c>
+      <c r="G5" t="n">
+        <v>86</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.40182</v>
+      </c>
+      <c r="I5" t="n">
+        <v>120.55652</v>
+      </c>
+      <c r="J5" t="n">
+        <v>22.9057388</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.08599999999999999</v>
+      </c>
+      <c r="L5" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.5203</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.098857</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.08599999999999999</v>
+      </c>
+      <c r="P5" t="n">
+        <v>71.68059</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>6.164530739999999</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.1712608406</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-86</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.90812</v>
+      </c>
+      <c r="U5" t="n">
+        <v>-78.09832</v>
+      </c>
+      <c r="V5" t="n">
+        <v>-14.8386808</v>
+      </c>
+      <c r="W5" t="n">
+        <v>49.14303074000001</v>
+      </c>
+      <c r="X5" t="n">
+        <v>9.337175840599999</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>58.48020658060001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>silviutanase</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>010620000001</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>550</v>
+      </c>
+      <c r="G6" t="n">
+        <v>119</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.40182</v>
+      </c>
+      <c r="I6" t="n">
+        <v>166.81658</v>
+      </c>
+      <c r="J6" t="n">
+        <v>31.6951502</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.119</v>
+      </c>
+      <c r="L6" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.71995</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.1367905</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.119</v>
+      </c>
+      <c r="P6" t="n">
+        <v>71.68059</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>8.529990209999999</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.6206981399</v>
+      </c>
+      <c r="S6" t="n">
+        <v>-119</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.90812</v>
+      </c>
+      <c r="U6" t="n">
+        <v>-108.06628</v>
+      </c>
+      <c r="V6" t="n">
+        <v>-20.5325932</v>
+      </c>
+      <c r="W6" t="n">
+        <v>68.00024021000002</v>
+      </c>
+      <c r="X6" t="n">
+        <v>12.9200456399</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>80.92028584990001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>silviutanase</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>010720000001</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>663</v>
+      </c>
+      <c r="G7" t="n">
+        <v>113</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.40182</v>
+      </c>
+      <c r="I7" t="n">
+        <v>158.40566</v>
+      </c>
+      <c r="J7" t="n">
+        <v>30.0970754</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.113</v>
+      </c>
+      <c r="L7" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.68365</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.1298935</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.113</v>
+      </c>
+      <c r="P7" t="n">
+        <v>71.68059</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>8.099906669999999</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.5389822673</v>
+      </c>
+      <c r="S7" t="n">
+        <v>-113</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.90812</v>
+      </c>
+      <c r="U7" t="n">
+        <v>-102.61756</v>
+      </c>
+      <c r="V7" t="n">
+        <v>-19.4973364</v>
+      </c>
+      <c r="W7" t="n">
+        <v>64.57165667000001</v>
+      </c>
+      <c r="X7" t="n">
+        <v>12.2686147673</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>76.84027143730002</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>silviutanase</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C8" t="n">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>010820000001</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>745</v>
+      </c>
+      <c r="G8" t="n">
+        <v>82</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.40182</v>
+      </c>
+      <c r="I8" t="n">
+        <v>114.94924</v>
+      </c>
+      <c r="J8" t="n">
+        <v>21.8403556</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.082</v>
+      </c>
+      <c r="L8" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.4961</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.094259</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.082</v>
+      </c>
+      <c r="P8" t="n">
+        <v>71.68059</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5.87780838</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.1167835922</v>
+      </c>
+      <c r="S8" t="n">
+        <v>-82</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.90812</v>
+      </c>
+      <c r="U8" t="n">
+        <v>-74.46584</v>
+      </c>
+      <c r="V8" t="n">
+        <v>-14.1485096</v>
+      </c>
+      <c r="W8" t="n">
+        <v>46.85730838000001</v>
+      </c>
+      <c r="X8" t="n">
+        <v>8.902888592200004</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>55.76019697220001</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>silviutanase</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C9" t="n">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>010920000001</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>867</v>
+      </c>
+      <c r="G9" t="n">
+        <v>122</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.40182</v>
+      </c>
+      <c r="I9" t="n">
+        <v>171.02204</v>
+      </c>
+      <c r="J9" t="n">
+        <v>32.4941876</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.122</v>
+      </c>
+      <c r="L9" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.7381</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.140239</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.122</v>
+      </c>
+      <c r="P9" t="n">
+        <v>71.68059</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>8.745031979999998</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.6615560762</v>
+      </c>
+      <c r="S9" t="n">
+        <v>-122</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.90812</v>
+      </c>
+      <c r="U9" t="n">
+        <v>-110.79064</v>
+      </c>
+      <c r="V9" t="n">
+        <v>-21.0502216</v>
+      </c>
+      <c r="W9" t="n">
+        <v>69.71453197999999</v>
+      </c>
+      <c r="X9" t="n">
+        <v>13.2457610762</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>82.96029305619999</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>silviutanase</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C10" t="n">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>011020000001</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>977</v>
+      </c>
+      <c r="G10" t="n">
+        <v>110</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.40182</v>
+      </c>
+      <c r="I10" t="n">
+        <v>154.2002</v>
+      </c>
+      <c r="J10" t="n">
+        <v>29.298038</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="L10" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.6655</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.126445</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="P10" t="n">
+        <v>71.68059</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>7.884864899999999</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.498124331</v>
+      </c>
+      <c r="S10" t="n">
+        <v>-110</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.90812</v>
+      </c>
+      <c r="U10" t="n">
+        <v>-99.89320000000001</v>
+      </c>
+      <c r="V10" t="n">
+        <v>-18.979708</v>
+      </c>
+      <c r="W10" t="n">
+        <v>62.85736489999999</v>
+      </c>
+      <c r="X10" t="n">
+        <v>11.942899331</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>74.80026423099999</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>silviutanase</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C11" t="n">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>011120000001</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1080</v>
+      </c>
+      <c r="G11" t="n">
+        <v>103</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.40182</v>
+      </c>
+      <c r="I11" t="n">
+        <v>144.38746</v>
+      </c>
+      <c r="J11" t="n">
+        <v>27.4336174</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.103</v>
+      </c>
+      <c r="L11" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.62315</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.1183985</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.103</v>
+      </c>
+      <c r="P11" t="n">
+        <v>71.68059</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>7.38310077</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.4027891463</v>
+      </c>
+      <c r="S11" t="n">
+        <v>-103</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.90812</v>
+      </c>
+      <c r="U11" t="n">
+        <v>-93.53636</v>
+      </c>
+      <c r="V11" t="n">
+        <v>-17.7719084</v>
+      </c>
+      <c r="W11" t="n">
+        <v>58.85735077000001</v>
+      </c>
+      <c r="X11" t="n">
+        <v>11.1828966463</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>70.04024741630002</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>silviutanase</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C12" t="n">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>011220000001</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>1199</v>
+      </c>
+      <c r="G12" t="n">
+        <v>119</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.40182</v>
+      </c>
+      <c r="I12" t="n">
+        <v>166.81658</v>
+      </c>
+      <c r="J12" t="n">
+        <v>31.6951502</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.119</v>
+      </c>
+      <c r="L12" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.71995</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.1367905</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.119</v>
+      </c>
+      <c r="P12" t="n">
+        <v>71.68059</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>8.529990209999999</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.6206981399</v>
+      </c>
+      <c r="S12" t="n">
+        <v>-119</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.90812</v>
+      </c>
+      <c r="U12" t="n">
+        <v>-108.06628</v>
+      </c>
+      <c r="V12" t="n">
+        <v>-20.5325932</v>
+      </c>
+      <c r="W12" t="n">
+        <v>68.00024021000002</v>
+      </c>
+      <c r="X12" t="n">
+        <v>12.9200456399</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>80.92028584990001</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>silviutanase</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C13" t="n">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2">
-        <v>2020</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2">
-        <v>105</v>
-      </c>
-      <c r="G2">
-        <v>105</v>
-      </c>
-      <c r="H2">
-        <v>1.4018200000000001</v>
-      </c>
-      <c r="I2">
-        <v>147.19110000000001</v>
-      </c>
-      <c r="J2">
-        <v>27.966308999999999</v>
-      </c>
-      <c r="K2">
-        <v>0.105</v>
-      </c>
-      <c r="L2">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>010121000001</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>1305</v>
+      </c>
+      <c r="G13" t="n">
+        <v>106</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.40182</v>
+      </c>
+      <c r="I13" t="n">
+        <v>148.59292</v>
+      </c>
+      <c r="J13" t="n">
+        <v>28.23265480000001</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.106</v>
+      </c>
+      <c r="L13" t="n">
         <v>6.05</v>
       </c>
-      <c r="M2">
-        <v>0.63524999999999998</v>
-      </c>
-      <c r="N2">
-        <v>0.1206975</v>
-      </c>
-      <c r="O2">
-        <v>0.105</v>
-      </c>
-      <c r="P2">
-        <v>71.680589999999995</v>
-      </c>
-      <c r="Q2">
-        <v>7.526461949999999</v>
-      </c>
-      <c r="R2">
-        <v>1.4300277705</v>
-      </c>
-      <c r="S2">
-        <v>-105</v>
-      </c>
-      <c r="T2">
-        <v>0.90812000000000004</v>
-      </c>
-      <c r="U2">
-        <v>-95.35260000000001</v>
-      </c>
-      <c r="V2">
-        <v>-18.116993999999998</v>
-      </c>
-      <c r="W2">
-        <v>60.000211950000008</v>
-      </c>
-      <c r="X2">
-        <v>11.4000402705</v>
-      </c>
-      <c r="Y2">
-        <v>71.400252220500008</v>
+      <c r="M13" t="n">
+        <v>0.6413</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.121847</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.106</v>
+      </c>
+      <c r="P13" t="n">
+        <v>71.68059</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>7.59814254</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.4436470826</v>
+      </c>
+      <c r="S13" t="n">
+        <v>-106</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.90812</v>
+      </c>
+      <c r="U13" t="n">
+        <v>-96.26072000000001</v>
+      </c>
+      <c r="V13" t="n">
+        <v>-18.2895368</v>
+      </c>
+      <c r="W13" t="n">
+        <v>60.57164254000001</v>
+      </c>
+      <c r="X13" t="n">
+        <v>11.5086120826</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>72.08025462260002</v>
       </c>
     </row>
   </sheetData>

--- a/Exporturi excel/CL/export_consum_silviutanase-2020.xlsx
+++ b/Exporturi excel/CL/export_consum_silviutanase-2020.xlsx
@@ -1496,64 +1496,64 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1305</v>
+        <v>1315</v>
       </c>
       <c r="G13" t="n">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="H13" t="n">
         <v>1.40182</v>
       </c>
       <c r="I13" t="n">
-        <v>148.59292</v>
+        <v>162.61112</v>
       </c>
       <c r="J13" t="n">
-        <v>28.23265480000001</v>
+        <v>30.8961128</v>
       </c>
       <c r="K13" t="n">
-        <v>0.106</v>
+        <v>0.116</v>
       </c>
       <c r="L13" t="n">
         <v>6.05</v>
       </c>
       <c r="M13" t="n">
-        <v>0.6413</v>
+        <v>0.7018</v>
       </c>
       <c r="N13" t="n">
-        <v>0.121847</v>
+        <v>0.133342</v>
       </c>
       <c r="O13" t="n">
-        <v>0.106</v>
+        <v>0.116</v>
       </c>
       <c r="P13" t="n">
         <v>71.68059</v>
       </c>
       <c r="Q13" t="n">
-        <v>7.59814254</v>
+        <v>8.31494844</v>
       </c>
       <c r="R13" t="n">
-        <v>1.4436470826</v>
+        <v>1.5798402036</v>
       </c>
       <c r="S13" t="n">
-        <v>-106</v>
+        <v>-116</v>
       </c>
       <c r="T13" t="n">
         <v>0.90812</v>
       </c>
       <c r="U13" t="n">
-        <v>-96.26072000000001</v>
+        <v>-105.34192</v>
       </c>
       <c r="V13" t="n">
-        <v>-18.2895368</v>
+        <v>-20.0149648</v>
       </c>
       <c r="W13" t="n">
-        <v>60.57164254000001</v>
+        <v>66.28594843999998</v>
       </c>
       <c r="X13" t="n">
-        <v>11.5086120826</v>
+        <v>12.5943302036</v>
       </c>
       <c r="Y13" t="n">
-        <v>72.08025462260002</v>
+        <v>78.88027864359998</v>
       </c>
     </row>
   </sheetData>
